--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2472869173148</v>
+        <v>25.46517066666667</v>
       </c>
       <c r="H2">
-        <v>18.2472869173148</v>
+        <v>76.39551200000001</v>
       </c>
       <c r="I2">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="J2">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.80477422917145</v>
+        <v>10.738355</v>
       </c>
       <c r="N2">
-        <v>8.80477422917145</v>
+        <v>32.215065</v>
       </c>
       <c r="O2">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076047</v>
       </c>
       <c r="P2">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076046</v>
       </c>
       <c r="Q2">
-        <v>160.6632416018707</v>
+        <v>273.4540427542534</v>
       </c>
       <c r="R2">
-        <v>160.6632416018707</v>
+        <v>2461.086384788281</v>
       </c>
       <c r="S2">
-        <v>0.005739437584347793</v>
+        <v>0.008714997006997882</v>
       </c>
       <c r="T2">
-        <v>0.005739437584347793</v>
+        <v>0.00871499700699788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2472869173148</v>
+        <v>25.46517066666667</v>
       </c>
       <c r="H3">
-        <v>18.2472869173148</v>
+        <v>76.39551200000001</v>
       </c>
       <c r="I3">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="J3">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.0259651944846</v>
+        <v>26.13904566666666</v>
       </c>
       <c r="N3">
-        <v>26.0259651944846</v>
+        <v>78.417137</v>
       </c>
       <c r="O3">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893505</v>
       </c>
       <c r="P3">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893504</v>
       </c>
       <c r="Q3">
-        <v>474.9032542038091</v>
+        <v>665.6352589654605</v>
       </c>
       <c r="R3">
-        <v>474.9032542038091</v>
+        <v>5990.717330689145</v>
       </c>
       <c r="S3">
-        <v>0.01696515991418089</v>
+        <v>0.02121383626735947</v>
       </c>
       <c r="T3">
-        <v>0.01696515991418089</v>
+        <v>0.02121383626735947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2472869173148</v>
+        <v>25.46517066666667</v>
       </c>
       <c r="H4">
-        <v>18.2472869173148</v>
+        <v>76.39551200000001</v>
       </c>
       <c r="I4">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="J4">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.0068151426011</v>
+        <v>18.19678233333333</v>
       </c>
       <c r="N4">
-        <v>17.0068151426011</v>
+        <v>54.590347</v>
       </c>
       <c r="O4">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399482</v>
       </c>
       <c r="P4">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399481</v>
       </c>
       <c r="Q4">
-        <v>310.3282354567763</v>
+        <v>463.3841677025183</v>
       </c>
       <c r="R4">
-        <v>310.3282354567763</v>
+        <v>4170.457509322665</v>
       </c>
       <c r="S4">
-        <v>0.01108598034190426</v>
+        <v>0.01476808166353151</v>
       </c>
       <c r="T4">
-        <v>0.01108598034190426</v>
+        <v>0.01476808166353151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.2472869173148</v>
+        <v>25.46517066666667</v>
       </c>
       <c r="H5">
-        <v>18.2472869173148</v>
+        <v>76.39551200000001</v>
       </c>
       <c r="I5">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="J5">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.6316404663036</v>
+        <v>19.65048466666667</v>
       </c>
       <c r="N5">
-        <v>19.6316404663036</v>
+        <v>58.951454</v>
       </c>
       <c r="O5">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="P5">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="Q5">
-        <v>358.2241762462095</v>
+        <v>500.4029457193832</v>
       </c>
       <c r="R5">
-        <v>358.2241762462095</v>
+        <v>4503.626511474448</v>
       </c>
       <c r="S5">
-        <v>0.01279698629425378</v>
+        <v>0.01594787237487099</v>
       </c>
       <c r="T5">
-        <v>0.01279698629425378</v>
+        <v>0.01594787237487099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2472869173148</v>
+        <v>25.46517066666667</v>
       </c>
       <c r="H6">
-        <v>18.2472869173148</v>
+        <v>76.39551200000001</v>
       </c>
       <c r="I6">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="J6">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.9172781339438</v>
+        <v>25.34389066666667</v>
       </c>
       <c r="N6">
-        <v>24.9172781339438</v>
+        <v>76.031672</v>
       </c>
       <c r="O6">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="P6">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="Q6">
-        <v>454.6727233086068</v>
+        <v>645.3865011840072</v>
       </c>
       <c r="R6">
-        <v>454.6727233086068</v>
+        <v>5808.478510656065</v>
       </c>
       <c r="S6">
-        <v>0.01624245652407401</v>
+        <v>0.0205685071228956</v>
       </c>
       <c r="T6">
-        <v>0.01624245652407401</v>
+        <v>0.02056850712289559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2472869173148</v>
+        <v>25.46517066666667</v>
       </c>
       <c r="H7">
-        <v>18.2472869173148</v>
+        <v>76.39551200000001</v>
       </c>
       <c r="I7">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="J7">
-        <v>0.0717671808049813</v>
+        <v>0.09366467756935824</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.7103463851612</v>
+        <v>15.34221666666667</v>
       </c>
       <c r="N7">
-        <v>13.7103463851612</v>
+        <v>46.02665</v>
       </c>
       <c r="O7">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="P7">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="Q7">
-        <v>250.1766242258062</v>
+        <v>390.6921658216444</v>
       </c>
       <c r="R7">
-        <v>250.1766242258062</v>
+        <v>3516.2294923948</v>
       </c>
       <c r="S7">
-        <v>0.008937160146220579</v>
+        <v>0.01245138313370279</v>
       </c>
       <c r="T7">
-        <v>0.008937160146220579</v>
+        <v>0.01245138313370279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.3019955544303</v>
+        <v>48.41119266666667</v>
       </c>
       <c r="H8">
-        <v>48.3019955544303</v>
+        <v>145.233578</v>
       </c>
       <c r="I8">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="J8">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.80477422917145</v>
+        <v>10.738355</v>
       </c>
       <c r="N8">
-        <v>8.80477422917145</v>
+        <v>32.215065</v>
       </c>
       <c r="O8">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076047</v>
       </c>
       <c r="P8">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076046</v>
       </c>
       <c r="Q8">
-        <v>425.2881656752018</v>
+        <v>519.8565728280633</v>
       </c>
       <c r="R8">
-        <v>425.2881656752018</v>
+        <v>4678.709155452571</v>
       </c>
       <c r="S8">
-        <v>0.01519274015585506</v>
+        <v>0.01656786065633795</v>
       </c>
       <c r="T8">
-        <v>0.01519274015585506</v>
+        <v>0.01656786065633795</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.3019955544303</v>
+        <v>48.41119266666667</v>
       </c>
       <c r="H9">
-        <v>48.3019955544303</v>
+        <v>145.233578</v>
       </c>
       <c r="I9">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="J9">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.0259651944846</v>
+        <v>26.13904566666666</v>
       </c>
       <c r="N9">
-        <v>26.0259651944846</v>
+        <v>78.417137</v>
       </c>
       <c r="O9">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893505</v>
       </c>
       <c r="P9">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893504</v>
       </c>
       <c r="Q9">
-        <v>1257.106055123753</v>
+        <v>1265.422375891799</v>
       </c>
       <c r="R9">
-        <v>1257.106055123753</v>
+        <v>11388.80138302619</v>
       </c>
       <c r="S9">
-        <v>0.04490810510451225</v>
+        <v>0.04032908823511492</v>
       </c>
       <c r="T9">
-        <v>0.04490810510451225</v>
+        <v>0.04032908823511492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.3019955544303</v>
+        <v>48.41119266666667</v>
       </c>
       <c r="H10">
-        <v>48.3019955544303</v>
+        <v>145.233578</v>
       </c>
       <c r="I10">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="J10">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0068151426011</v>
+        <v>18.19678233333333</v>
       </c>
       <c r="N10">
-        <v>17.0068151426011</v>
+        <v>54.590347</v>
       </c>
       <c r="O10">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399482</v>
       </c>
       <c r="P10">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399481</v>
       </c>
       <c r="Q10">
-        <v>821.4631094129361</v>
+        <v>880.9279354523964</v>
       </c>
       <c r="R10">
-        <v>821.4631094129361</v>
+        <v>7928.351419071568</v>
       </c>
       <c r="S10">
-        <v>0.02934545697766447</v>
+        <v>0.02807522698703654</v>
       </c>
       <c r="T10">
-        <v>0.02934545697766447</v>
+        <v>0.02807522698703653</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>48.3019955544303</v>
+        <v>48.41119266666667</v>
       </c>
       <c r="H11">
-        <v>48.3019955544303</v>
+        <v>145.233578</v>
       </c>
       <c r="I11">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="J11">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.6316404663036</v>
+        <v>19.65048466666667</v>
       </c>
       <c r="N11">
-        <v>19.6316404663036</v>
+        <v>58.951454</v>
       </c>
       <c r="O11">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="P11">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="Q11">
-        <v>948.2474105295705</v>
+        <v>951.3033991913793</v>
       </c>
       <c r="R11">
-        <v>948.2474105295705</v>
+        <v>8561.730592722413</v>
       </c>
       <c r="S11">
-        <v>0.03387462354793244</v>
+        <v>0.03031809730511226</v>
       </c>
       <c r="T11">
-        <v>0.03387462354793244</v>
+        <v>0.03031809730511225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>48.3019955544303</v>
+        <v>48.41119266666667</v>
       </c>
       <c r="H12">
-        <v>48.3019955544303</v>
+        <v>145.233578</v>
       </c>
       <c r="I12">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="J12">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.9172781339438</v>
+        <v>25.34389066666667</v>
       </c>
       <c r="N12">
-        <v>24.9172781339438</v>
+        <v>76.031672</v>
       </c>
       <c r="O12">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="P12">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="Q12">
-        <v>1203.554257654257</v>
+        <v>1226.927973986935</v>
       </c>
       <c r="R12">
-        <v>1203.554257654257</v>
+        <v>11042.35176588242</v>
       </c>
       <c r="S12">
-        <v>0.04299505270969348</v>
+        <v>0.03910226930053971</v>
       </c>
       <c r="T12">
-        <v>0.04299505270969348</v>
+        <v>0.03910226930053971</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>48.3019955544303</v>
+        <v>48.41119266666667</v>
       </c>
       <c r="H13">
-        <v>48.3019955544303</v>
+        <v>145.233578</v>
       </c>
       <c r="I13">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="J13">
-        <v>0.1899733403603607</v>
+        <v>0.178063552419339</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.7103463851612</v>
+        <v>15.34221666666667</v>
       </c>
       <c r="N13">
-        <v>13.7103463851612</v>
+        <v>46.02665</v>
       </c>
       <c r="O13">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="P13">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="Q13">
-        <v>662.2370901457558</v>
+        <v>742.7350069837445</v>
       </c>
       <c r="R13">
-        <v>662.2370901457558</v>
+        <v>6684.615062853701</v>
       </c>
       <c r="S13">
-        <v>0.02365736186470305</v>
+        <v>0.02367100993519761</v>
       </c>
       <c r="T13">
-        <v>0.02365736186470305</v>
+        <v>0.02367100993519761</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.8524311164054</v>
+        <v>47.68842933333334</v>
       </c>
       <c r="H14">
-        <v>41.8524311164054</v>
+        <v>143.065288</v>
       </c>
       <c r="I14">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="J14">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.80477422917145</v>
+        <v>10.738355</v>
       </c>
       <c r="N14">
-        <v>8.80477422917145</v>
+        <v>32.215065</v>
       </c>
       <c r="O14">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076047</v>
       </c>
       <c r="P14">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076046</v>
       </c>
       <c r="Q14">
-        <v>368.5012069218996</v>
+        <v>512.0952835737468</v>
       </c>
       <c r="R14">
-        <v>368.5012069218996</v>
+        <v>4608.85755216372</v>
       </c>
       <c r="S14">
-        <v>0.01316411679359797</v>
+        <v>0.0163205078948262</v>
       </c>
       <c r="T14">
-        <v>0.01316411679359797</v>
+        <v>0.0163205078948262</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.8524311164054</v>
+        <v>47.68842933333334</v>
       </c>
       <c r="H15">
-        <v>41.8524311164054</v>
+        <v>143.065288</v>
       </c>
       <c r="I15">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="J15">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0259651944846</v>
+        <v>26.13904566666666</v>
       </c>
       <c r="N15">
-        <v>26.0259651944846</v>
+        <v>78.417137</v>
       </c>
       <c r="O15">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893505</v>
       </c>
       <c r="P15">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893504</v>
       </c>
       <c r="Q15">
-        <v>1089.249915540131</v>
+        <v>1246.530032115606</v>
       </c>
       <c r="R15">
-        <v>1089.249915540131</v>
+        <v>11218.77028904046</v>
       </c>
       <c r="S15">
-        <v>0.03891171273321237</v>
+        <v>0.03972698808765923</v>
       </c>
       <c r="T15">
-        <v>0.03891171273321237</v>
+        <v>0.03972698808765922</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.8524311164054</v>
+        <v>47.68842933333334</v>
       </c>
       <c r="H16">
-        <v>41.8524311164054</v>
+        <v>143.065288</v>
       </c>
       <c r="I16">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="J16">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.0068151426011</v>
+        <v>18.19678233333333</v>
       </c>
       <c r="N16">
-        <v>17.0068151426011</v>
+        <v>54.590347</v>
       </c>
       <c r="O16">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399482</v>
       </c>
       <c r="P16">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399481</v>
       </c>
       <c r="Q16">
-        <v>711.7765592651527</v>
+        <v>867.7759683972153</v>
       </c>
       <c r="R16">
-        <v>711.7765592651527</v>
+        <v>7809.983715574936</v>
       </c>
       <c r="S16">
-        <v>0.02542708024046619</v>
+        <v>0.02765607299550077</v>
       </c>
       <c r="T16">
-        <v>0.02542708024046619</v>
+        <v>0.02765607299550076</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.8524311164054</v>
+        <v>47.68842933333334</v>
       </c>
       <c r="H17">
-        <v>41.8524311164054</v>
+        <v>143.065288</v>
       </c>
       <c r="I17">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="J17">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.6316404663036</v>
+        <v>19.65048466666667</v>
       </c>
       <c r="N17">
-        <v>19.6316404663036</v>
+        <v>58.951454</v>
       </c>
       <c r="O17">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="P17">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="Q17">
-        <v>821.6318803180083</v>
+        <v>937.1007493920837</v>
       </c>
       <c r="R17">
-        <v>821.6318803180083</v>
+        <v>8433.906744528753</v>
       </c>
       <c r="S17">
-        <v>0.02935148604857115</v>
+        <v>0.02986545799049245</v>
       </c>
       <c r="T17">
-        <v>0.02935148604857115</v>
+        <v>0.02986545799049245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.8524311164054</v>
+        <v>47.68842933333334</v>
       </c>
       <c r="H18">
-        <v>41.8524311164054</v>
+        <v>143.065288</v>
       </c>
       <c r="I18">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="J18">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.9172781339438</v>
+        <v>25.34389066666667</v>
       </c>
       <c r="N18">
-        <v>24.9172781339438</v>
+        <v>76.031672</v>
       </c>
       <c r="O18">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="P18">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="Q18">
-        <v>1042.848666709197</v>
+        <v>1208.61033908906</v>
       </c>
       <c r="R18">
-        <v>1042.848666709197</v>
+        <v>10877.49305180154</v>
       </c>
       <c r="S18">
-        <v>0.03725410226272978</v>
+        <v>0.03851848516005901</v>
       </c>
       <c r="T18">
-        <v>0.03725410226272978</v>
+        <v>0.038518485160059</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.8524311164054</v>
+        <v>47.68842933333334</v>
       </c>
       <c r="H19">
-        <v>41.8524311164054</v>
+        <v>143.065288</v>
       </c>
       <c r="I19">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="J19">
-        <v>0.1646069908731996</v>
+        <v>0.1754051215978155</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.7103463851612</v>
+        <v>15.34221666666667</v>
       </c>
       <c r="N19">
-        <v>13.7103463851612</v>
+        <v>46.02665</v>
       </c>
       <c r="O19">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="P19">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="Q19">
-        <v>573.8113276670169</v>
+        <v>731.6462153250222</v>
       </c>
       <c r="R19">
-        <v>573.8113276670169</v>
+        <v>6584.8159379252</v>
       </c>
       <c r="S19">
-        <v>0.02049849279462215</v>
+        <v>0.02331760946927788</v>
       </c>
       <c r="T19">
-        <v>0.02049849279462215</v>
+        <v>0.02331760946927788</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>52.6587816547495</v>
+        <v>53.71649566666667</v>
       </c>
       <c r="H20">
-        <v>52.6587816547495</v>
+        <v>161.149487</v>
       </c>
       <c r="I20">
-        <v>0.2071087236755396</v>
+        <v>0.197577244332396</v>
       </c>
       <c r="J20">
-        <v>0.2071087236755396</v>
+        <v>0.1975772443323959</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.80477422917145</v>
+        <v>10.738355</v>
       </c>
       <c r="N20">
-        <v>8.80477422917145</v>
+        <v>32.215065</v>
       </c>
       <c r="O20">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076047</v>
       </c>
       <c r="P20">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076046</v>
       </c>
       <c r="Q20">
-        <v>463.6486836533047</v>
+        <v>576.8267998246283</v>
       </c>
       <c r="R20">
-        <v>463.6486836533047</v>
+        <v>5191.441198421655</v>
       </c>
       <c r="S20">
-        <v>0.01656310836480827</v>
+        <v>0.01838350526251128</v>
       </c>
       <c r="T20">
-        <v>0.01656310836480827</v>
+        <v>0.01838350526251128</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>52.6587816547495</v>
+        <v>53.71649566666667</v>
       </c>
       <c r="H21">
-        <v>52.6587816547495</v>
+        <v>161.149487</v>
       </c>
       <c r="I21">
-        <v>0.2071087236755396</v>
+        <v>0.197577244332396</v>
       </c>
       <c r="J21">
-        <v>0.2071087236755396</v>
+        <v>0.1975772443323959</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.0259651944846</v>
+        <v>26.13904566666666</v>
       </c>
       <c r="N21">
-        <v>26.0259651944846</v>
+        <v>78.417137</v>
       </c>
       <c r="O21">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893505</v>
       </c>
       <c r="P21">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893504</v>
       </c>
       <c r="Q21">
-        <v>1370.495618530475</v>
+        <v>1404.097933284302</v>
       </c>
       <c r="R21">
-        <v>1370.495618530475</v>
+        <v>12636.88139955872</v>
       </c>
       <c r="S21">
-        <v>0.04895876607338535</v>
+        <v>0.04474868670016864</v>
       </c>
       <c r="T21">
-        <v>0.04895876607338535</v>
+        <v>0.04474868670016863</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.6587816547495</v>
+        <v>53.71649566666667</v>
       </c>
       <c r="H22">
-        <v>52.6587816547495</v>
+        <v>161.149487</v>
       </c>
       <c r="I22">
-        <v>0.2071087236755396</v>
+        <v>0.197577244332396</v>
       </c>
       <c r="J22">
-        <v>0.2071087236755396</v>
+        <v>0.1975772443323959</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.0068151426011</v>
+        <v>18.19678233333333</v>
       </c>
       <c r="N22">
-        <v>17.0068151426011</v>
+        <v>54.590347</v>
       </c>
       <c r="O22">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399482</v>
       </c>
       <c r="P22">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399481</v>
       </c>
       <c r="Q22">
-        <v>895.5581652369186</v>
+        <v>977.4673793557766</v>
       </c>
       <c r="R22">
-        <v>895.5581652369186</v>
+        <v>8797.206414201988</v>
       </c>
       <c r="S22">
-        <v>0.03199238445136958</v>
+        <v>0.03115194494739704</v>
       </c>
       <c r="T22">
-        <v>0.03199238445136958</v>
+        <v>0.03115194494739703</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.6587816547495</v>
+        <v>53.71649566666667</v>
       </c>
       <c r="H23">
-        <v>52.6587816547495</v>
+        <v>161.149487</v>
       </c>
       <c r="I23">
-        <v>0.2071087236755396</v>
+        <v>0.197577244332396</v>
       </c>
       <c r="J23">
-        <v>0.2071087236755396</v>
+        <v>0.1975772443323959</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.6316404663036</v>
+        <v>19.65048466666667</v>
       </c>
       <c r="N23">
-        <v>19.6316404663036</v>
+        <v>58.951454</v>
       </c>
       <c r="O23">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="P23">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="Q23">
-        <v>1033.778268839626</v>
+        <v>1055.5551744449</v>
       </c>
       <c r="R23">
-        <v>1033.778268839626</v>
+        <v>9499.996570004098</v>
       </c>
       <c r="S23">
-        <v>0.03693007679232</v>
+        <v>0.03364060773559488</v>
       </c>
       <c r="T23">
-        <v>0.03693007679232</v>
+        <v>0.03364060773559487</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.6587816547495</v>
+        <v>53.71649566666667</v>
       </c>
       <c r="H24">
-        <v>52.6587816547495</v>
+        <v>161.149487</v>
       </c>
       <c r="I24">
-        <v>0.2071087236755396</v>
+        <v>0.197577244332396</v>
       </c>
       <c r="J24">
-        <v>0.2071087236755396</v>
+        <v>0.1975772443323959</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.9172781339438</v>
+        <v>25.34389066666667</v>
       </c>
       <c r="N24">
-        <v>24.9172781339438</v>
+        <v>76.031672</v>
       </c>
       <c r="O24">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="P24">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="Q24">
-        <v>1312.113508686011</v>
+        <v>1361.384993172474</v>
       </c>
       <c r="R24">
-        <v>1312.113508686011</v>
+        <v>12252.46493855226</v>
       </c>
       <c r="S24">
-        <v>0.04687315848726942</v>
+        <v>0.04338742269585773</v>
       </c>
       <c r="T24">
-        <v>0.04687315848726942</v>
+        <v>0.04338742269585771</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>52.6587816547495</v>
+        <v>53.71649566666667</v>
       </c>
       <c r="H25">
-        <v>52.6587816547495</v>
+        <v>161.149487</v>
       </c>
       <c r="I25">
-        <v>0.2071087236755396</v>
+        <v>0.197577244332396</v>
       </c>
       <c r="J25">
-        <v>0.2071087236755396</v>
+        <v>0.1975772443323959</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.7103463851612</v>
+        <v>15.34221666666667</v>
       </c>
       <c r="N25">
-        <v>13.7103463851612</v>
+        <v>46.02665</v>
       </c>
       <c r="O25">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="P25">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="Q25">
-        <v>721.9701367071876</v>
+        <v>824.130115092061</v>
       </c>
       <c r="R25">
-        <v>721.9701367071876</v>
+        <v>7417.171035828549</v>
       </c>
       <c r="S25">
-        <v>0.02579122950638698</v>
+        <v>0.02626507699086639</v>
       </c>
       <c r="T25">
-        <v>0.02579122950638698</v>
+        <v>0.02626507699086638</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>58.4334327048594</v>
+        <v>60.28995899999999</v>
       </c>
       <c r="H26">
-        <v>58.4334327048594</v>
+        <v>180.869877</v>
       </c>
       <c r="I26">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="J26">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.80477422917145</v>
+        <v>10.738355</v>
       </c>
       <c r="N26">
-        <v>8.80477422917145</v>
+        <v>32.215065</v>
       </c>
       <c r="O26">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076047</v>
       </c>
       <c r="P26">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076046</v>
       </c>
       <c r="Q26">
-        <v>514.4931824017702</v>
+        <v>647.4149826774449</v>
       </c>
       <c r="R26">
-        <v>514.4931824017702</v>
+        <v>5826.734844097004</v>
       </c>
       <c r="S26">
-        <v>0.0183794468387786</v>
+        <v>0.02063315495170809</v>
       </c>
       <c r="T26">
-        <v>0.0183794468387786</v>
+        <v>0.02063315495170808</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>58.4334327048594</v>
+        <v>60.28995899999999</v>
       </c>
       <c r="H27">
-        <v>58.4334327048594</v>
+        <v>180.869877</v>
       </c>
       <c r="I27">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="J27">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>26.0259651944846</v>
+        <v>26.13904566666666</v>
       </c>
       <c r="N27">
-        <v>26.0259651944846</v>
+        <v>78.417137</v>
       </c>
       <c r="O27">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893505</v>
       </c>
       <c r="P27">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893504</v>
       </c>
       <c r="Q27">
-        <v>1520.786485770929</v>
+        <v>1575.921991542461</v>
       </c>
       <c r="R27">
-        <v>1520.786485770929</v>
+        <v>14183.29792388215</v>
       </c>
       <c r="S27">
-        <v>0.05432766715756492</v>
+        <v>0.05022472990789624</v>
       </c>
       <c r="T27">
-        <v>0.05432766715756492</v>
+        <v>0.05022472990789623</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>58.4334327048594</v>
+        <v>60.28995899999999</v>
       </c>
       <c r="H28">
-        <v>58.4334327048594</v>
+        <v>180.869877</v>
       </c>
       <c r="I28">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="J28">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.0068151426011</v>
+        <v>18.19678233333333</v>
       </c>
       <c r="N28">
-        <v>17.0068151426011</v>
+        <v>54.590347</v>
       </c>
       <c r="O28">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399482</v>
       </c>
       <c r="P28">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399481</v>
       </c>
       <c r="Q28">
-        <v>993.7665881591651</v>
+        <v>1097.083260808591</v>
       </c>
       <c r="R28">
-        <v>993.7665881591651</v>
+        <v>9873.749347277319</v>
       </c>
       <c r="S28">
-        <v>0.03550072343419825</v>
+        <v>0.03496411037874712</v>
       </c>
       <c r="T28">
-        <v>0.03550072343419825</v>
+        <v>0.0349641103787471</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>58.4334327048594</v>
+        <v>60.28995899999999</v>
       </c>
       <c r="H29">
-        <v>58.4334327048594</v>
+        <v>180.869877</v>
       </c>
       <c r="I29">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="J29">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.6316404663036</v>
+        <v>19.65048466666667</v>
       </c>
       <c r="N29">
-        <v>19.6316404663036</v>
+        <v>58.951454</v>
       </c>
       <c r="O29">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="P29">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="Q29">
-        <v>1147.144142073746</v>
+        <v>1184.726914883462</v>
       </c>
       <c r="R29">
-        <v>1147.144142073746</v>
+        <v>10662.54223395116</v>
       </c>
       <c r="S29">
-        <v>0.04097989146763115</v>
+        <v>0.03775731897515934</v>
       </c>
       <c r="T29">
-        <v>0.04097989146763115</v>
+        <v>0.03775731897515933</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>58.4334327048594</v>
+        <v>60.28995899999999</v>
       </c>
       <c r="H30">
-        <v>58.4334327048594</v>
+        <v>180.869877</v>
       </c>
       <c r="I30">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="J30">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.9172781339438</v>
+        <v>25.34389066666667</v>
       </c>
       <c r="N30">
-        <v>24.9172781339438</v>
+        <v>76.031672</v>
       </c>
       <c r="O30">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="P30">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="Q30">
-        <v>1456.00209502807</v>
+        <v>1527.982129193816</v>
       </c>
       <c r="R30">
-        <v>1456.00209502807</v>
+        <v>13751.83916274434</v>
       </c>
       <c r="S30">
-        <v>0.05201334831648217</v>
+        <v>0.04869688357336684</v>
       </c>
       <c r="T30">
-        <v>0.05201334831648217</v>
+        <v>0.04869688357336683</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>58.4334327048594</v>
+        <v>60.28995899999999</v>
       </c>
       <c r="H31">
-        <v>58.4334327048594</v>
+        <v>180.869877</v>
       </c>
       <c r="I31">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="J31">
-        <v>0.2298206165655265</v>
+        <v>0.2217554181875825</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.7103463851612</v>
+        <v>15.34221666666667</v>
       </c>
       <c r="N31">
-        <v>13.7103463851612</v>
+        <v>46.02665</v>
       </c>
       <c r="O31">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="P31">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="Q31">
-        <v>801.1426028576293</v>
+        <v>924.9816138024497</v>
       </c>
       <c r="R31">
-        <v>801.1426028576293</v>
+        <v>8324.834524222048</v>
       </c>
       <c r="S31">
-        <v>0.02861953935087138</v>
+        <v>0.02947922040070492</v>
       </c>
       <c r="T31">
-        <v>0.02861953935087138</v>
+        <v>0.02947922040070491</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>34.7627770341405</v>
+        <v>36.30467566666667</v>
       </c>
       <c r="H32">
-        <v>34.7627770341405</v>
+        <v>108.914027</v>
       </c>
       <c r="I32">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="J32">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.80477422917145</v>
+        <v>10.738355</v>
       </c>
       <c r="N32">
-        <v>8.80477422917145</v>
+        <v>32.215065</v>
       </c>
       <c r="O32">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076047</v>
       </c>
       <c r="P32">
-        <v>0.0799730116185562</v>
+        <v>0.09304464856076046</v>
       </c>
       <c r="Q32">
-        <v>306.0784033646334</v>
+        <v>389.8524954685284</v>
       </c>
       <c r="R32">
-        <v>306.0784033646334</v>
+        <v>3508.672459216755</v>
       </c>
       <c r="S32">
-        <v>0.01093416188116851</v>
+        <v>0.01242462278837907</v>
       </c>
       <c r="T32">
-        <v>0.01093416188116851</v>
+        <v>0.01242462278837906</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>34.7627770341405</v>
+        <v>36.30467566666667</v>
       </c>
       <c r="H33">
-        <v>34.7627770341405</v>
+        <v>108.914027</v>
       </c>
       <c r="I33">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="J33">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>26.0259651944846</v>
+        <v>26.13904566666666</v>
       </c>
       <c r="N33">
-        <v>26.0259651944846</v>
+        <v>78.417137</v>
       </c>
       <c r="O33">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893505</v>
       </c>
       <c r="P33">
-        <v>0.2363916169464936</v>
+        <v>0.2264870473893504</v>
       </c>
       <c r="Q33">
-        <v>904.7348251541691</v>
+        <v>948.9695751645221</v>
       </c>
       <c r="R33">
-        <v>904.7348251541691</v>
+        <v>8540.726176480699</v>
       </c>
       <c r="S33">
-        <v>0.03232020596363783</v>
+        <v>0.03024371819115197</v>
       </c>
       <c r="T33">
-        <v>0.03232020596363783</v>
+        <v>0.03024371819115197</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>34.7627770341405</v>
+        <v>36.30467566666667</v>
       </c>
       <c r="H34">
-        <v>34.7627770341405</v>
+        <v>108.914027</v>
       </c>
       <c r="I34">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="J34">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.0068151426011</v>
+        <v>18.19678233333333</v>
       </c>
       <c r="N34">
-        <v>17.0068151426011</v>
+        <v>54.590347</v>
       </c>
       <c r="O34">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399482</v>
       </c>
       <c r="P34">
-        <v>0.1544714480568643</v>
+        <v>0.1576697005399481</v>
       </c>
       <c r="Q34">
-        <v>591.2041228630864</v>
+        <v>660.6282807885966</v>
       </c>
       <c r="R34">
-        <v>591.2041228630864</v>
+        <v>5945.654527097369</v>
       </c>
       <c r="S34">
-        <v>0.02111982261126156</v>
+        <v>0.02105426356773519</v>
       </c>
       <c r="T34">
-        <v>0.02111982261126156</v>
+        <v>0.02105426356773518</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>34.7627770341405</v>
+        <v>36.30467566666667</v>
       </c>
       <c r="H35">
-        <v>34.7627770341405</v>
+        <v>108.914027</v>
       </c>
       <c r="I35">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="J35">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.6316404663036</v>
+        <v>19.65048466666667</v>
       </c>
       <c r="N35">
-        <v>19.6316404663036</v>
+        <v>58.951454</v>
       </c>
       <c r="O35">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="P35">
-        <v>0.1783125120802509</v>
+        <v>0.1702655983955282</v>
       </c>
       <c r="Q35">
-        <v>682.450340344522</v>
+        <v>713.4044725161398</v>
       </c>
       <c r="R35">
-        <v>682.450340344522</v>
+        <v>6420.640252645258</v>
       </c>
       <c r="S35">
-        <v>0.02437944792954237</v>
+        <v>0.02273624401429829</v>
       </c>
       <c r="T35">
-        <v>0.02437944792954237</v>
+        <v>0.02273624401429828</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>34.7627770341405</v>
+        <v>36.30467566666667</v>
       </c>
       <c r="H36">
-        <v>34.7627770341405</v>
+        <v>108.914027</v>
       </c>
       <c r="I36">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="J36">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.9172781339438</v>
+        <v>25.34389066666667</v>
       </c>
       <c r="N36">
-        <v>24.9172781339438</v>
+        <v>76.031672</v>
       </c>
       <c r="O36">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="P36">
-        <v>0.2263215071553518</v>
+        <v>0.2195972660842687</v>
       </c>
       <c r="Q36">
-        <v>866.1937840679527</v>
+        <v>920.1017307847939</v>
       </c>
       <c r="R36">
-        <v>866.1937840679527</v>
+        <v>8280.915577063144</v>
       </c>
       <c r="S36">
-        <v>0.03094338885510298</v>
+        <v>0.02932369823154982</v>
       </c>
       <c r="T36">
-        <v>0.03094338885510298</v>
+        <v>0.02932369823154982</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>34.7627770341405</v>
+        <v>36.30467566666667</v>
       </c>
       <c r="H37">
-        <v>34.7627770341405</v>
+        <v>108.914027</v>
       </c>
       <c r="I37">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="J37">
-        <v>0.1367231477203923</v>
+        <v>0.1335339858935087</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>13.7103463851612</v>
+        <v>15.34221666666667</v>
       </c>
       <c r="N37">
-        <v>13.7103463851612</v>
+        <v>46.02665</v>
       </c>
       <c r="O37">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="P37">
-        <v>0.1245299041424831</v>
+        <v>0.132935739030144</v>
       </c>
       <c r="Q37">
-        <v>476.609714448193</v>
+        <v>556.9942000910611</v>
       </c>
       <c r="R37">
-        <v>476.609714448193</v>
+        <v>5012.94780081955</v>
       </c>
       <c r="S37">
-        <v>0.01702612047967901</v>
+        <v>0.01775143910039441</v>
       </c>
       <c r="T37">
-        <v>0.01702612047967901</v>
+        <v>0.0177514391003944</v>
       </c>
     </row>
   </sheetData>
